--- a/Crosswalk_2012/Crosswalk_Phosporus.xlsx
+++ b/Crosswalk_2012/Crosswalk_Phosporus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\2018IRFiles\2018_WQAssessment\Crosswalk_2012List\Final_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IR2018\Crosswalk_2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Crosswalk" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="193">
   <si>
     <t>RECORD_ID</t>
   </si>
@@ -604,6 +604,9 @@
   </si>
   <si>
     <t>OREGONDEQ</t>
+  </si>
+  <si>
+    <t>OR_WS_170900120201_02_104554.2</t>
   </si>
 </sst>
 </file>
@@ -952,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3824,6 +3827,26 @@
         <v>84</v>
       </c>
     </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>6467</v>
+      </c>
+      <c r="B150">
+        <v>126</v>
+      </c>
+      <c r="C150" t="s">
+        <v>89</v>
+      </c>
+      <c r="D150" t="s">
+        <v>192</v>
+      </c>
+      <c r="E150" t="s">
+        <v>82</v>
+      </c>
+      <c r="F150" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H149"/>
   <sortState ref="A2:H149">
@@ -3838,7 +3861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
